--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2830.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2830.xlsx
@@ -354,7 +354,7 @@
         <v>2.440043370729086</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.362172738114961</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2830.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2830.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.173341689461958</v>
+        <v>1.113764762878418</v>
       </c>
       <c r="B1">
-        <v>2.440043370729086</v>
+        <v>2.446182727813721</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>5.22813606262207</v>
       </c>
       <c r="D1">
-        <v>2.362172738114961</v>
+        <v>2.205544948577881</v>
       </c>
       <c r="E1">
-        <v>1.236679488217309</v>
+        <v>1.271423697471619</v>
       </c>
     </row>
   </sheetData>
